--- a/modulo_1/informatica_basica/16102023.xlsx
+++ b/modulo_1/informatica_basica/16102023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Despesa</t>
   </si>
@@ -64,10 +64,10 @@
     <t>Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Despesas Mensais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Receitas Mensais</t>
+    <t xml:space="preserve">Saidas Mensais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entradas Mensais</t>
   </si>
   <si>
     <t>Aluguel</t>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>Vestuário</t>
+  </si>
+  <si>
+    <t>Ativo</t>
+  </si>
+  <si>
+    <t>Passivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saídas Mensais</t>
+  </si>
+  <si>
+    <t>Sutotal</t>
   </si>
 </sst>
 </file>
@@ -146,7 +158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -304,13 +316,77 @@
       </bottom>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="none"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="35">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -336,6 +412,44 @@
     <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="10" numFmtId="161" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="13" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="13" numFmtId="161" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="14" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="15" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="16" numFmtId="161" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="14" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="15" numFmtId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1112,9 +1226,7 @@
       <c r="F4" s="12">
         <v>45217</v>
       </c>
-      <c r="G4" s="13">
-        <v>2000</v>
-      </c>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="9" t="s">
@@ -1132,9 +1244,7 @@
       <c r="F5" s="12">
         <v>45218</v>
       </c>
-      <c r="G5" s="13">
-        <v>5000</v>
-      </c>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="9" t="s">
@@ -1239,13 +1349,155 @@
       <c r="F12" s="15"/>
       <c r="G12" s="16">
         <f>SUM(G4:G11)</f>
-        <v>8000</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25">
+        <f>G12</f>
+        <v>1000</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="F17" s="25">
+        <f>C12</f>
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" s="28"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="25">
+        <f>SUM(F17:F21)</f>
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="27"/>
+      <c r="F23" s="25">
+        <f>C24-F22</f>
+        <v>-915</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32">
+        <f>SUM(C17:C23)</f>
+        <v>1000</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="34"/>
+      <c r="F24" s="32">
+        <f>F22+F23</f>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="22">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
